--- a/biology/Botanique/Carmel_Winery/Carmel_Winery.xlsx
+++ b/biology/Botanique/Carmel_Winery/Carmel_Winery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carmel Winery (en hébreu : יקבי כרמל) est un vignoble et un domaine viticole israélien.
-Fondé en 1882 par Edmond James de Rothschild, il exporte dans plus de 40 pays[1]. C’est la plus grande cave d’Israël avec une part de marché locale d’environ 50 %[2].
+Fondé en 1882 par Edmond James de Rothschild, il exporte dans plus de 40 pays. C’est la plus grande cave d’Israël avec une part de marché locale d’environ 50 %.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carmel Winery produit principalement du vin, du brandy et du jus de raisin. C’est le principal producteur de vin en Israël puisqu’il produit environ la moitié du vin présent sur le marché israélien et un des plus gros producteur de vin parmi les pays de l’est de la Méditerranée. C’est le premier et plus ancien exportateur de vin, brandy et jus de raisin du pays et aussi le plus gros producteur de vin casher du monde. 
 Vine-growers Union et l’Agence Juive pour Israël sont les propriétaires de Carmel Winery à, respectivement 75 % et 25 %. Sa société mère est la Société Coopérative Vigneronne des Grandes Vaces Richon Le Zion &amp; Zikhron Ya’akov Ltd (S.C.V.)
-L’entreprise est propriétaire des deux plus grosses caves  israéliennes (Rishon Le Zion et Zikhron Yaakov) ainsi que deux caves Yatir Winery (propriétaire à 50 %) et Kayoumi Winery[3],[4]. De plus, l’entreprise possède 1 400 hectares (3 472 acres) de vignes en Israël[1].
-Carmel a une production qui atteint 15 millions de bouteilles par an[3] et ses profits à l’export vont jusqu’à 5 millions de dollars US sur 40 pays.
+L’entreprise est propriétaire des deux plus grosses caves  israéliennes (Rishon Le Zion et Zikhron Yaakov) ainsi que deux caves Yatir Winery (propriétaire à 50 %) et Kayoumi Winery,. De plus, l’entreprise possède 1 400 hectares (3 472 acres) de vignes en Israël.
+Carmel a une production qui atteint 15 millions de bouteilles par an et ses profits à l’export vont jusqu’à 5 millions de dollars US sur 40 pays.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque les colons de la Première Aliyah, des juifs d’Europe de l'Est qui ont immigré en Palestine dans la seconde moitié du XIXe siècle, ont eu du mal à cultiver la terre à cause de leur manque d’expérience et les caractéristiques de la terre, ils ont demandé du soutien extérieur pour implanter des vignobles et caves. Leurs représentants voyagèrent en France et rencontrèrent le Baron Edmond de Rothschild, propriétaire du Château Lafite. En tant que sioniste, Rothschild fournit une assistance morale et financière aux colons. Les premiers vignobles furent plantés près de Rishon Letsion, au Sud-Est de Jaffa. En 1882, des porte-greffes français furent importés et le Baron envoya ses propres spécialistes du vin pour conseiller les pionniers dans leur entreprise. La construction commença par une large cave à vin à Rishon LeZion. Plus tard, une seconde cave fut implantée à Zikhron Yaakov, situé au mont Carmel juste au sud de Haïfa.
 En 1895, Carmel Wine Co fut fondé pour exporter les vins de Rishon LeZion et Zikhron Yaakov, dans un premier temps en Pologne puis en Autriche, Grande-Bretagne et aux États-Unis d’Amérique. En 1902, Carmel Mizrahi fut fondé en Palestine pour vendre et distribuer du vin dans les villes de l’Empire ottoman.
@@ -589,7 +605,9 @@
           <t>Caves</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La première cave Carmel et le siège social est la Cave Rishon LeZion située dans la ville de Rishon LeZion. Elle fut fondée en 1890 par le Baron Edmond de Rothschild, ce qui fait d’elle le plus vieux bâtiment industriel encore utilisé en Israël. La cave est la plus grande cave d’Israël en termes de production de vin, de spiritueux et de jus de raisin. Ce fut le premier établissement d’Israël à installer l’éléctricité et le téléphone, et c’est ici que travaillait le premier Premier Ministre Israélien David Ben Gourion. Des rénovations eurent lieu dans les années 1990.
 La seconde cave Carmel est la Cave Zikhron Yaakov. Situé à Zikhron Yaarkov, elle est utilisée pour la production de vin et du mélange de l’huile d’olive. Elle fut construite en 1892 par le Baron Edmond de Rothschild. La cave est la plus grande cave d’Israël en termes de raisins reçus lors de la récolte. En 2003 y fut construite une nouvelle boutique ainsi qu’une micro-cave pour la recherche et le développement.
@@ -623,7 +641,9 @@
           <t>Vignobles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caves Carmel possèdent de nombreux vignobles en Israël, de la Galilée (région) et du Plateau du Golan dans le nord jusqu’à Neguev dans le sud. Ces vignobles incluent certains des meilleurs vignobles individuels du pays. En moyenne, Carmel récolte environ 25 000 tonnes de raisin, correspondant à environ 50 % de la récolte israélienne. Les régions de culture sont spécifiées sur l’étiquette des vins exportés.
 Dans la Galilée et à Golan, généralement acceptés comme les meilleures régions pour cultiver le raisin en Israël grâce à leur haute altitude et un climat plus frais, les vignobles Carmel se concentrent sur la qualité de pousse des raisins. Carmel possède des vignobles dans le centre et le nord du Plateau de Golan et c’est la cave la plus présente dans la haute Galilée. Les raisins des meilleurs vignobles vont à la Cave Ramat Dalton.
